--- a/Proyecto/VLSM.xlsx
+++ b/Proyecto/VLSM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Semestre 23-2\Administracion de Servicios en Red\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007164DC-710B-46A6-8866-35B42E1568F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5AF0E0-AE34-4313-9797-C5B48A4A3757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{592002D0-AEB1-4EF2-A558-94BC334ED239}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{592002D0-AEB1-4EF2-A558-94BC334ED239}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuración" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="105">
   <si>
     <t>#Subred</t>
   </si>
@@ -277,6 +277,81 @@
   </si>
   <si>
     <t>192.168.1.34</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>S1/0</t>
+  </si>
+  <si>
+    <t>S1/1</t>
+  </si>
+  <si>
+    <t>192.168.1.133</t>
+  </si>
+  <si>
+    <t>192.168.1.134</t>
+  </si>
+  <si>
+    <t>S2/0</t>
+  </si>
+  <si>
+    <t>192.168.1.125</t>
+  </si>
+  <si>
+    <t>192.168.1.137</t>
+  </si>
+  <si>
+    <t>Vlan 1</t>
+  </si>
+  <si>
+    <t>Vlan 2</t>
+  </si>
+  <si>
+    <t>Vlan 10</t>
+  </si>
+  <si>
+    <t>Vlan 20</t>
+  </si>
+  <si>
+    <t>192.168.1.30</t>
+  </si>
+  <si>
+    <t>192.168.1.62</t>
+  </si>
+  <si>
+    <t>192.168.1.141</t>
+  </si>
+  <si>
+    <t>192.168.1.142</t>
+  </si>
+  <si>
+    <t>192.168.1.29</t>
+  </si>
+  <si>
+    <t>192.168.1.61</t>
+  </si>
+  <si>
+    <t>S1/2</t>
+  </si>
+  <si>
+    <t>S1/3</t>
+  </si>
+  <si>
+    <t>192.168.1.126</t>
+  </si>
+  <si>
+    <t>F0/0</t>
+  </si>
+  <si>
+    <t>F0/1</t>
   </si>
 </sst>
 </file>
@@ -315,12 +390,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -350,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -366,6 +459,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02538BA8-8CD2-4A0F-BD35-68680FAA389B}">
   <dimension ref="A2:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -1108,91 +1207,288 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A576058-56FA-454F-858B-65BD6C69C365}">
-  <dimension ref="B3:E14"/>
+  <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="C10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="F13" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="F14" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E15" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="F15" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E16" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="F16" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
